--- a/plants_insects/aphids.xlsx
+++ b/plants_insects/aphids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/plants_insects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D94BD2-1FD7-3F43-BB78-A4367C4E204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409CA6A-F81B-1844-90B1-5236690F0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{042BD4E0-36A8-6746-878C-704DAB14B302}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Common Name</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>JF883920</t>
+  </si>
+  <si>
+    <t>Soybean Aphid</t>
+  </si>
+  <si>
+    <t>Aphis glycines</t>
+  </si>
+  <si>
+    <t>Glycine max</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Chloe Cho in June 2025</t>
+  </si>
+  <si>
+    <t>Buckthorn</t>
   </si>
 </sst>
 </file>
@@ -650,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC0C40-633C-C449-A8A5-7999CDE1DD39}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,6 +868,30 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
     <sortCondition ref="B1:B7"/>

--- a/plants_insects/aphids.xlsx
+++ b/plants_insects/aphids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/plants_insects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409CA6A-F81B-1844-90B1-5236690F0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99C1D9A-FD1F-2047-A164-482D57A1A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{042BD4E0-36A8-6746-878C-704DAB14B302}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Common Name</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>Buckthorn</t>
+  </si>
+  <si>
+    <t>Obligate Symbiont</t>
+  </si>
+  <si>
+    <t>Secondary Symbiont(s)</t>
+  </si>
+  <si>
+    <t>Buchnera aphidicola</t>
   </si>
 </sst>
 </file>
@@ -668,10 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC0C40-633C-C449-A8A5-7999CDE1DD39}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,10 +697,13 @@
     <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -719,8 +734,14 @@
       <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -747,8 +768,12 @@
       <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -771,8 +796,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -795,8 +822,10 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -821,8 +850,10 @@
         <v>39</v>
       </c>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -847,8 +878,10 @@
         <v>39</v>
       </c>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -867,8 +900,10 @@
       <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -891,6 +926,8 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
